--- a/database/OLD/RAPRO22232023/ST/ST.xlsx
+++ b/database/OLD/RAPRO22232023/ST/ST.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4905,7 +4905,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Libertad (ECU)</t>
         </is>
       </c>
       <c r="C115" t="n">
@@ -5841,7 +5841,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Libertad (ECU)</t>
         </is>
       </c>
       <c r="C139" t="n">
@@ -5997,7 +5997,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Libertad (ECU)</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -8571,7 +8571,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Universidad Católica</t>
+          <t>Universidad</t>
         </is>
       </c>
       <c r="C209" t="n">
@@ -9624,7 +9624,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Everton (CHI)</t>
         </is>
       </c>
       <c r="C236" t="n">
@@ -9741,7 +9741,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Everton (CHI)</t>
         </is>
       </c>
       <c r="C239" t="n">
@@ -13563,7 +13563,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>River Plate (URU)</t>
         </is>
       </c>
       <c r="C337" t="n">
@@ -13836,7 +13836,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool (URU)</t>
         </is>
       </c>
       <c r="C344" t="n">
@@ -14538,7 +14538,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>River Plate (URU)</t>
         </is>
       </c>
       <c r="C362" t="n">
@@ -14694,7 +14694,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool (URU)</t>
         </is>
       </c>
       <c r="C366" t="n">
@@ -27213,7 +27213,7 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Fortaleza (COL)</t>
         </is>
       </c>
       <c r="C687" t="n">
@@ -27330,7 +27330,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Fortaleza (COL)</t>
         </is>
       </c>
       <c r="C690" t="n">
@@ -27408,7 +27408,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Fortaleza (COL)</t>
         </is>
       </c>
       <c r="C692" t="n">
@@ -27564,7 +27564,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Fortaleza (COL)</t>
         </is>
       </c>
       <c r="C696" t="n">
@@ -29787,7 +29787,7 @@
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>River Plate (URU)</t>
         </is>
       </c>
       <c r="C753" t="n">
@@ -30450,7 +30450,7 @@
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>River Plate (URU)</t>
         </is>
       </c>
       <c r="C770" t="n">
@@ -30996,7 +30996,7 @@
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>River Plate (URU)</t>
         </is>
       </c>
       <c r="C784" t="n">
@@ -31113,7 +31113,7 @@
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>River Plate (URU)</t>
         </is>
       </c>
       <c r="C787" t="n">
@@ -42267,7 +42267,7 @@
       </c>
       <c r="B1073" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Barcelona (ECU)</t>
         </is>
       </c>
       <c r="C1073" t="n">
@@ -42345,7 +42345,7 @@
       </c>
       <c r="B1075" t="inlineStr">
         <is>
-          <t>Universidad Católica</t>
+          <t>Universidad</t>
         </is>
       </c>
       <c r="C1075" t="n">
@@ -42852,7 +42852,7 @@
       </c>
       <c r="B1088" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Barcelona (ECU)</t>
         </is>
       </c>
       <c r="C1088" t="n">

--- a/database/OLD/RAPRO22232023/ST/ST.xlsx
+++ b/database/OLD/RAPRO22232023/ST/ST.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9624,7 +9624,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Everton (CHI)</t>
         </is>
       </c>
       <c r="C236" t="n">
@@ -9741,7 +9741,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Everton (CHI)</t>
         </is>
       </c>
       <c r="C239" t="n">
@@ -13836,7 +13836,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool (URU)</t>
         </is>
       </c>
       <c r="C344" t="n">
@@ -14694,7 +14694,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool (URU)</t>
         </is>
       </c>
       <c r="C366" t="n">
@@ -42267,7 +42267,7 @@
       </c>
       <c r="B1073" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Barcelona (ECU)</t>
         </is>
       </c>
       <c r="C1073" t="n">
@@ -42852,7 +42852,7 @@
       </c>
       <c r="B1088" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Barcelona (ECU)</t>
         </is>
       </c>
       <c r="C1088" t="n">

--- a/database/OLD/RAPRO22232023/ST/ST.xlsx
+++ b/database/OLD/RAPRO22232023/ST/ST.xlsx
@@ -28695,7 +28695,7 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Arsenal Sarandi</t>
         </is>
       </c>
       <c r="C725" t="n">
@@ -30411,7 +30411,7 @@
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Arsenal Sarandi</t>
         </is>
       </c>
       <c r="C769" t="n">
